--- a/medicine/Pharmacie/MDEA/MDEA.xlsx
+++ b/medicine/Pharmacie/MDEA/MDEA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La MDEA ou MDE (3,4-méthylènedioxy-N-éthylamphétamine) est une substance psychotrope aux propriétés stimulantes et hallucinogènes de la famille des phényléthylamines.
@@ -513,9 +525,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La MDEA provoque une libération massive de sérotonine dans le cerveau tout en inhibant sa recapture. Elle agit moins efficacement que la MDMA et la MDA pour la libération de dopamine et de noradrénaline[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MDEA provoque une libération massive de sérotonine dans le cerveau tout en inhibant sa recapture. Elle agit moins efficacement que la MDMA et la MDA pour la libération de dopamine et de noradrénaline.
 </t>
         </is>
       </c>
@@ -544,13 +558,50 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses effets sont proches de ceux de la MDMA mais moins rapides et moins intenses[3].
-Les effets physiques peuvent induire tachycardie, augmentation de la pression artérielle, mydriase, palpitations, nausées, vomissements[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses effets sont proches de ceux de la MDMA mais moins rapides et moins intenses.
+Les effets physiques peuvent induire tachycardie, augmentation de la pression artérielle, mydriase, palpitations, nausées, vomissements.
 La consommation de MDEA, comme celle des autres psychotropes à caractère hallucinogène, est susceptible de provoquer un bad trip, notamment si le consommateur prend une dose élevée ou n'apprécie pas le contexte de la prise.
-Effets recherchés
-désinhibition ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MDEA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MDEA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>désinhibition ;
 sensations d'énergie et de forme ;
 ivresse ;
 sensations de bien-être, d'euphorie et de bonheur ;
@@ -560,37 +611,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MDEA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/MDEA</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -612,10 +632,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MDEA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MDEA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la MDEA est classée comme stupéfiant.
 </t>
